--- a/Entregables/UdeBarcelona/models_Var_all.xlsx
+++ b/Entregables/UdeBarcelona/models_Var_all.xlsx
@@ -482,19 +482,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999958564253003</v>
+        <v>0.9999958875889788</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2893525751808868</v>
+        <v>0.2893471185498306</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7106432812444136</v>
+        <v>0.7106487690391482</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06676773078700542</v>
+        <v>0.06651617804570137</v>
       </c>
       <c r="F2" t="n">
-        <v>27.65069955122723</v>
+        <v>27.65080570750881</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2.36</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="3">
@@ -512,19 +512,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999919398793818</v>
+        <v>0.9999919561955879</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2876752245755018</v>
+        <v>0.3442991438669198</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7123167153038801</v>
+        <v>0.6556928123286681</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09312146514831479</v>
+        <v>0.09302716390936586</v>
       </c>
       <c r="F3" t="n">
-        <v>27.68331247606078</v>
+        <v>26.56023451251171</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="4">
@@ -542,19 +542,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.999979123281334</v>
+        <v>0.9999786254387332</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2630849131529353</v>
+        <v>0.3155303178371341</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7368942101283987</v>
+        <v>0.684448307601599</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1498684270918312</v>
+        <v>0.1516448390638694</v>
       </c>
       <c r="F4" t="n">
-        <v>28.15708902103563</v>
+        <v>27.13664405141674</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2.97</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="5">
@@ -575,16 +575,16 @@
         <v>0.9567770954856545</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5550794535011662</v>
+        <v>0.5550794535011663</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4016976419844883</v>
+        <v>0.4016976419844882</v>
       </c>
       <c r="E5" t="n">
-        <v>6.819240442267575</v>
+        <v>6.819240442267574</v>
       </c>
       <c r="F5" t="n">
-        <v>21.8786369096</v>
+        <v>21.87863690959999</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="6">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="7">
@@ -635,16 +635,16 @@
         <v>0.1712849157645974</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.129396985384034</v>
+        <v>-1.198298859569846</v>
       </c>
       <c r="D7" t="n">
-        <v>1.300681901148631</v>
+        <v>1.369583775334443</v>
       </c>
       <c r="E7" t="n">
         <v>29.85943954830155</v>
       </c>
       <c r="F7" t="n">
-        <v>47.86381898489335</v>
+        <v>48.63202988343252</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2.53</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="8">
@@ -665,16 +665,16 @@
         <v>0.9981407535076632</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2277983465155332</v>
+        <v>0.2277983465155334</v>
       </c>
       <c r="D8" t="n">
-        <v>0.77034240699213</v>
+        <v>0.7703424069921297</v>
       </c>
       <c r="E8" t="n">
-        <v>1.414319454662003</v>
+        <v>1.414319454662004</v>
       </c>
       <c r="F8" t="n">
-        <v>28.82334589671152</v>
+        <v>28.82334589671151</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>

--- a/Entregables/UdeBarcelona/models_Var_all.xlsx
+++ b/Entregables/UdeBarcelona/models_Var_all.xlsx
@@ -482,27 +482,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999958875889788</v>
+        <v>0.9999960958032298</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2893471185498306</v>
+        <v>0.2895728968386183</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7106487690391482</v>
+        <v>0.7104231989646115</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06651617804570137</v>
+        <v>0.06481042641419571</v>
       </c>
       <c r="F2" t="n">
-        <v>27.65080570750881</v>
+        <v>27.64641295283707</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'solver': 'saga', 'alpha': 0.01}</t>
+          <t>{'solver': 'saga', 'alpha': 0.001}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2.41</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="3">
@@ -512,19 +512,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999919561955879</v>
+        <v>0.9999923035685135</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3442991438669198</v>
+        <v>0.6435909691867521</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6556928123286681</v>
+        <v>0.3564013343817615</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09302716390936586</v>
+        <v>0.09099629998478549</v>
       </c>
       <c r="F3" t="n">
-        <v>26.56023451251171</v>
+        <v>19.5818346861296</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="4">
@@ -542,27 +542,27 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999786254387332</v>
+        <v>0.9999998292898571</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3155303178371341</v>
+        <v>0.2851446271829342</v>
       </c>
       <c r="D4" t="n">
-        <v>0.684448307601599</v>
+        <v>0.7148552021069229</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1516448390638694</v>
+        <v>0.01355216538312895</v>
       </c>
       <c r="F4" t="n">
-        <v>27.13664405141674</v>
+        <v>27.73244260013872</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'l1_ratio': 0.7, 'alpha': 0.01}</t>
+          <t>{'l1_ratio': 0.9, 'alpha': 0.001}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="5">
@@ -572,16 +572,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9567770954856545</v>
+        <v>0.9567770954856544</v>
       </c>
       <c r="C5" t="n">
         <v>0.5550794535011663</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4016976419844882</v>
+        <v>0.4016976419844881</v>
       </c>
       <c r="E5" t="n">
-        <v>6.819240442267574</v>
+        <v>6.819240442267581</v>
       </c>
       <c r="F5" t="n">
         <v>21.87863690959999</v>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2.34</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="6">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="7">
@@ -635,16 +635,16 @@
         <v>0.1712849157645974</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.198298859569846</v>
+        <v>-1.094332560472273</v>
       </c>
       <c r="D7" t="n">
-        <v>1.369583775334443</v>
+        <v>1.265617476236871</v>
       </c>
       <c r="E7" t="n">
         <v>29.85943954830155</v>
       </c>
       <c r="F7" t="n">
-        <v>48.63202988343252</v>
+        <v>47.46810040372116</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2.47</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="8">
@@ -665,16 +665,16 @@
         <v>0.9981407535076632</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2277983465155334</v>
+        <v>0.2277983465155331</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7703424069921297</v>
+        <v>0.7703424069921301</v>
       </c>
       <c r="E8" t="n">
-        <v>1.414319454662004</v>
+        <v>1.414319454662002</v>
       </c>
       <c r="F8" t="n">
-        <v>28.82334589671151</v>
+        <v>28.82334589671152</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
     </row>
   </sheetData>

--- a/Entregables/UdeBarcelona/models_Var_all.xlsx
+++ b/Entregables/UdeBarcelona/models_Var_all.xlsx
@@ -482,19 +482,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999960958032298</v>
+        <v>0.999996380231418</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2895728968386183</v>
+        <v>0.2893411364491366</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7104231989646115</v>
+        <v>0.7106552437822814</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06481042641419571</v>
+        <v>0.0624050065428236</v>
       </c>
       <c r="F2" t="n">
-        <v>27.64641295283707</v>
+        <v>27.65092208609548</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="3">
@@ -512,27 +512,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999923035685135</v>
+        <v>0.9992984376170847</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6435909691867521</v>
+        <v>0.2331262159611003</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3564013343817615</v>
+        <v>0.7661722216559844</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09099629998478549</v>
+        <v>0.8687847263559442</v>
       </c>
       <c r="F3" t="n">
-        <v>19.5818346861296</v>
+        <v>28.72373925374329</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'selection': 'random', 'alpha': 0.01}</t>
+          <t>{'selection': 'cyclic', 'alpha': 0.1}</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="4">
@@ -542,27 +542,27 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999998292898571</v>
+        <v>0.999999769269028</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2851446271829342</v>
+        <v>0.3034972958664161</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7148552021069229</v>
+        <v>0.696502473402612</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01355216538312895</v>
+        <v>0.01575549230009836</v>
       </c>
       <c r="F4" t="n">
-        <v>27.73244260013872</v>
+        <v>27.37413680684637</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'l1_ratio': 0.9, 'alpha': 0.001}</t>
+          <t>{'l1_ratio': 0.7, 'alpha': 0.001}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="5">
@@ -572,16 +572,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9567770954856544</v>
+        <v>0.9567770954856545</v>
       </c>
       <c r="C5" t="n">
         <v>0.5550794535011663</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4016976419844881</v>
+        <v>0.4016976419844882</v>
       </c>
       <c r="E5" t="n">
-        <v>6.819240442267581</v>
+        <v>6.819240442267576</v>
       </c>
       <c r="F5" t="n">
         <v>21.87863690959999</v>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2.27</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="6">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="7">
@@ -635,16 +635,16 @@
         <v>0.1712849157645974</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.094332560472273</v>
+        <v>-1.10132033866227</v>
       </c>
       <c r="D7" t="n">
-        <v>1.265617476236871</v>
+        <v>1.272605254426868</v>
       </c>
       <c r="E7" t="n">
         <v>29.85943954830155</v>
       </c>
       <c r="F7" t="n">
-        <v>47.46810040372116</v>
+        <v>47.54722354435978</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="8">
@@ -665,16 +665,16 @@
         <v>0.9981407535076632</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2277983465155331</v>
+        <v>0.2277983465155334</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7703424069921301</v>
+        <v>0.7703424069921297</v>
       </c>
       <c r="E8" t="n">
-        <v>1.414319454662002</v>
+        <v>1.414319454662004</v>
       </c>
       <c r="F8" t="n">
-        <v>28.82334589671152</v>
+        <v>28.82334589671151</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.54</v>
+        <v>0.49</v>
       </c>
     </row>
   </sheetData>
